--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j0hn\Desktop\SeleniumShop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47938B-69CF-4611-923F-84D046BE8DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388847B2-2C78-4203-AA94-459E550A0902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>namelast</t>
   </si>
@@ -48,9 +48,6 @@
     <t>confirmpass</t>
   </si>
   <si>
-    <t>quito centro</t>
-  </si>
-  <si>
     <t>12345678</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>test12@gmail.com</t>
   </si>
   <si>
-    <t>test diez</t>
-  </si>
-  <si>
     <t>test once</t>
   </si>
   <si>
@@ -108,13 +102,22 @@
     <t>nCuenta</t>
   </si>
   <si>
-    <t>0916273689</t>
-  </si>
-  <si>
-    <t>Cañar</t>
-  </si>
-  <si>
-    <t>testtqa@kmail.es</t>
+    <t>test veinte</t>
+  </si>
+  <si>
+    <t>testveinte@gmail.com</t>
+  </si>
+  <si>
+    <t>Mi casa</t>
+  </si>
+  <si>
+    <t>0999999999</t>
+  </si>
+  <si>
+    <t>Mi otra casa</t>
+  </si>
+  <si>
+    <t>1515151515</t>
   </si>
 </sst>
 </file>
@@ -447,15 +450,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="11.42578125" style="1"/>
+    <col min="1" max="11" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,97 +481,97 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1711178267</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1001934767</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1">
-        <v>555555555</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J3" s="1">
         <v>55555556</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388847B2-2C78-4203-AA94-459E550A0902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C34D8A-6A51-45D6-BEBF-111B022EB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,12 +102,6 @@
     <t>nCuenta</t>
   </si>
   <si>
-    <t>test veinte</t>
-  </si>
-  <si>
-    <t>testveinte@gmail.com</t>
-  </si>
-  <si>
     <t>Mi casa</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>1515151515</t>
+  </si>
+  <si>
+    <t>test bgr</t>
+  </si>
+  <si>
+    <t>testbgr@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,19 +495,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1711178267</v>
+        <v>1711158970</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C34D8A-6A51-45D6-BEBF-111B022EB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5B624-8DF8-4273-B8BF-984BC72DD9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>namelast</t>
   </si>
@@ -111,13 +111,16 @@
     <t>Mi otra casa</t>
   </si>
   <si>
-    <t>1515151515</t>
-  </si>
-  <si>
-    <t>test bgr</t>
-  </si>
-  <si>
-    <t>testbgr@gmail.com</t>
+    <t>test xd</t>
+  </si>
+  <si>
+    <t>testxd@gmail.com</t>
+  </si>
+  <si>
+    <t>0102340494</t>
+  </si>
+  <si>
+    <t>1212121212</t>
   </si>
 </sst>
 </file>
@@ -450,15 +453,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="11.44140625" style="1"/>
+    <col min="1" max="11" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,21 +496,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2">
-        <v>1711158970</v>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -522,13 +525,13 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -554,7 +557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5B624-8DF8-4273-B8BF-984BC72DD9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA11279C-5C9F-4E0D-B6DE-4FD5C842AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <t>Mi otra casa</t>
   </si>
   <si>
-    <t>test xd</t>
-  </si>
-  <si>
-    <t>testxd@gmail.com</t>
-  </si>
-  <si>
-    <t>0102340494</t>
-  </si>
-  <si>
-    <t>1212121212</t>
+    <t>test tcs</t>
+  </si>
+  <si>
+    <t>testtcs@gmail.com</t>
+  </si>
+  <si>
+    <t>0400671475</t>
+  </si>
+  <si>
+    <t>1313131313</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA11279C-5C9F-4E0D-B6DE-4FD5C842AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37DA7BD-ACFD-479F-B7B1-EA8415E51AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <t>Mi otra casa</t>
   </si>
   <si>
-    <t>test tcs</t>
-  </si>
-  <si>
-    <t>testtcs@gmail.com</t>
-  </si>
-  <si>
-    <t>0400671475</t>
-  </si>
-  <si>
-    <t>1313131313</t>
+    <t>test xd</t>
+  </si>
+  <si>
+    <t>testxd@gmail.com</t>
+  </si>
+  <si>
+    <t>0102340494</t>
+  </si>
+  <si>
+    <t>1212121212</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37DA7BD-ACFD-479F-B7B1-EA8415E51AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE145A05-CFD3-436C-9B18-190E983FCA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <t>testxd@gmail.com</t>
   </si>
   <si>
-    <t>0102340494</t>
-  </si>
-  <si>
-    <t>1212121212</t>
+    <t>0400671475</t>
+  </si>
+  <si>
+    <t>1313131313</t>
   </si>
 </sst>
 </file>
@@ -453,15 +453,15 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="11.42578125" style="1"/>
+    <col min="1" max="11" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -531,7 +531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -557,7 +557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE145A05-CFD3-436C-9B18-190E983FCA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D2ED2-9FAD-4642-ADE3-3F3923550776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,16 @@
     <t>Mi otra casa</t>
   </si>
   <si>
-    <t>test xd</t>
-  </si>
-  <si>
-    <t>testxd@gmail.com</t>
-  </si>
-  <si>
-    <t>0400671475</t>
-  </si>
-  <si>
-    <t>1313131313</t>
+    <t>test nova</t>
+  </si>
+  <si>
+    <t>testnova@gmail.com</t>
+  </si>
+  <si>
+    <t>0916468945</t>
+  </si>
+  <si>
+    <t>1414141414</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D2ED2-9FAD-4642-ADE3-3F3923550776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62628716-D8FD-4F52-A4DB-DC5B45F47FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>namelast</t>
   </si>
@@ -48,21 +48,12 @@
     <t>confirmpass</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>87654321</t>
-  </si>
-  <si>
     <t>0992696308</t>
   </si>
   <si>
     <t>guayaquil</t>
   </si>
   <si>
-    <t>hola1234</t>
-  </si>
-  <si>
     <t>0984311070</t>
   </si>
   <si>
@@ -87,12 +78,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Exitoso</t>
-  </si>
-  <si>
-    <t>Fallido</t>
-  </si>
-  <si>
     <t>numContacto</t>
   </si>
   <si>
@@ -111,16 +96,25 @@
     <t>Mi otra casa</t>
   </si>
   <si>
-    <t>test nova</t>
-  </si>
-  <si>
     <t>testnova@gmail.com</t>
   </si>
   <si>
-    <t>0916468945</t>
-  </si>
-  <si>
     <t>1414141414</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test bp</t>
+  </si>
+  <si>
+    <t>5555555556</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
@@ -453,7 +447,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,97 +478,112 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>55555556</v>
-      </c>
-      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Trainee-Shop/test.xlsx
+++ b/Trainee-Shop/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCS\Trainee-shop\Fron-local-login\Front-Angular\Trainee-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62628716-D8FD-4F52-A4DB-DC5B45F47FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B092126D-5C76-43A3-8203-3A4BCF800141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>namelast</t>
   </si>
@@ -48,18 +48,9 @@
     <t>confirmpass</t>
   </si>
   <si>
-    <t>0992696308</t>
-  </si>
-  <si>
     <t>guayaquil</t>
   </si>
   <si>
-    <t>0984311070</t>
-  </si>
-  <si>
-    <t>0987003943</t>
-  </si>
-  <si>
     <t>ibarra</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>testnova@gmail.com</t>
   </si>
   <si>
-    <t>1414141414</t>
-  </si>
-  <si>
     <t>1234567899</t>
   </si>
   <si>
@@ -111,10 +99,10 @@
     <t>test bp</t>
   </si>
   <si>
-    <t>5555555556</t>
-  </si>
-  <si>
-    <t>1234567890</t>
+    <t>5555555555</t>
+  </si>
+  <si>
+    <t>0987276214</t>
   </si>
 </sst>
 </file>
@@ -447,7 +435,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,45 +466,45 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
@@ -524,66 +512,66 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
